--- a/Gantt Chart-B조_20220329.xlsx
+++ b/Gantt Chart-B조_20220329.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="85">
   <si>
     <t>Try Smartsheet for FREE</t>
   </si>
@@ -124,9 +124,6 @@
     <t>DURATION IN DAYS</t>
   </si>
   <si>
-    <t>프로젝트 진행 및 문서 작성</t>
-  </si>
-  <si>
     <t>주제 구상</t>
   </si>
   <si>
@@ -136,28 +133,16 @@
     <t>excel</t>
   </si>
   <si>
-    <t>장진혁</t>
-  </si>
-  <si>
     <t>플로우 차트 제작</t>
   </si>
   <si>
     <t>gitmind</t>
   </si>
   <si>
-    <t>윤재현</t>
-  </si>
-  <si>
     <t>간트 차트 제작</t>
   </si>
   <si>
-    <t>김혜원</t>
-  </si>
-  <si>
     <t>DB 설계도 작성</t>
-  </si>
-  <si>
-    <t>윤재현(정), 김혜원(부)</t>
   </si>
   <si>
     <t>전체 코드 통합 및 리뷰</t>
@@ -169,142 +154,25 @@
     <t>포트폴리오 작성</t>
   </si>
   <si>
-    <t>라즈베리 파이 서버 구축</t>
-  </si>
-  <si>
-    <t>윤재현, 김혜원</t>
-  </si>
-  <si>
-    <t>리눅스 설치 및 초기 세팅</t>
-  </si>
-  <si>
     <t>Linux(Rasbian)</t>
-  </si>
-  <si>
-    <t>DB 설계 및 프로그래밍</t>
   </si>
   <si>
     <t>MariaDB</t>
   </si>
   <si>
-    <t>웹서버 설치</t>
-  </si>
-  <si>
     <t>Flask</t>
-  </si>
-  <si>
-    <t>OpenCV 설치</t>
-  </si>
-  <si>
-    <t>OpenCV</t>
-  </si>
-  <si>
-    <t>Azure 클라우드 서버 구축</t>
-  </si>
-  <si>
-    <t>윤재현, 장진혁</t>
-  </si>
-  <si>
-    <t>Azure 클라우드 서버 설치</t>
   </si>
   <si>
     <t>Azure</t>
   </si>
   <si>
-    <t>Tensorflow 설치</t>
-  </si>
-  <si>
     <t>Tensorflow</t>
-  </si>
-  <si>
-    <t>Yolo 설치</t>
-  </si>
-  <si>
-    <t>Yolo</t>
-  </si>
-  <si>
-    <t>영상 처리, 데이터 학습 및 코드 작성</t>
-  </si>
-  <si>
-    <t>김혜원, 장진혁</t>
-  </si>
-  <si>
-    <t>화재 감지 기준 모델 학습</t>
   </si>
   <si>
     <t>Tensorflow, yolo</t>
   </si>
   <si>
-    <t>영상 촬영, 라벨링, 데이터 저장 코드 작성 및 테스트</t>
-  </si>
-  <si>
     <t>OpenCV, Python, DB</t>
-  </si>
-  <si>
-    <t>김혜원(정), 장진혁(부)</t>
-  </si>
-  <si>
-    <t>화재 감지 판단, 데이터 저장 코드 작성 및 테스트</t>
-  </si>
-  <si>
-    <t>Tensorflow, yolo, Python, DB, Azure</t>
-  </si>
-  <si>
-    <t>장진혁(정), 김혜원(부)</t>
-  </si>
-  <si>
-    <t>2축 모터 제어</t>
-  </si>
-  <si>
-    <t>안태영</t>
-  </si>
-  <si>
-    <t>회로 설계 및 제작</t>
-  </si>
-  <si>
-    <t>RasbarryPI, Atmega, DC모터</t>
-  </si>
-  <si>
-    <t>안태영(정), 장진혁(부)</t>
-  </si>
-  <si>
-    <t>모터 제어, RasberraPI-Atmega 통신 코드 작성 및 테스트</t>
-  </si>
-  <si>
-    <t>C언어</t>
-  </si>
-  <si>
-    <t>Flask 웹 대시보드 제작</t>
-  </si>
-  <si>
-    <t>데이터 시각화 화면 구상</t>
-  </si>
-  <si>
-    <t>Flask 웹 대시보드 코드 작성 및 테스트</t>
-  </si>
-  <si>
-    <t>챗봇 제작</t>
-  </si>
-  <si>
-    <t>챗봇 코드 작성 및 테스트</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>하드웨어 제작</t>
-  </si>
-  <si>
-    <t>안태영, 장진혁</t>
-  </si>
-  <si>
-    <t>CCTV 외형 프로토타입 제작</t>
-  </si>
-  <si>
-    <t>Catia</t>
-  </si>
-  <si>
-    <t>CCTV 외형 본품 제작 및 제품 조립</t>
   </si>
   <si>
     <r>
@@ -468,20 +336,22 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
+    <t>최규범</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>감염병</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>디스플레이</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Century Gothic"/>
@@ -491,39 +361,32 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>확산방지를</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>구성하기</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3D </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>위한</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>르린터이용</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Century Gothic"/>
@@ -533,18 +396,16 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>딥러닝</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>하드웨어</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Century Gothic"/>
@@ -554,18 +415,16 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>얼굴인식</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>케이스</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Century Gothic"/>
@@ -575,57 +434,1915 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>기반</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>만들기</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>전자명부</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>벽부착형</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>일반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카메라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>열화상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카메라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검출컴퓨터로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과물</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전송</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검증을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검출</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검출컴퓨터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디스플에이에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비정상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표시</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에 현재 영상출력 코드 작성</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>라즈베리 2개 사용 역할 나누기</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학습시켜서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모델</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만들기</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만들기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검출될사람의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내력사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넣기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라즈베리파이로부터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>온도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받기</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도출</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기반으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내력사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따와서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서버의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> DB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라즈베리에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보내주기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검증을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>것</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만들고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컴퓨터가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보낸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블생성</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">http </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만들고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대쉬보드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대쉬보드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>폼은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회의를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구성</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>조하나</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>안형수</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>심은용</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가제</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감염병</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확산방지를</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>딥러닝</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>얼굴인식</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기반</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전자명부</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>시스템</t>
     </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>진행</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문서</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>라즈베리파이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분야</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검출</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컴퓨터</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분야</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서버</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분야</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Task 1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. Task 3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. Task 4</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. Task 2</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -638,7 +2355,7 @@
     <numFmt numFmtId="177" formatCode="m/d"/>
     <numFmt numFmtId="178" formatCode="mm\.dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -737,6 +2454,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="돋움"/>
@@ -1021,7 +2745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1179,20 +2903,82 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF429F91"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="18"/>
+          <bgColor indexed="21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF59D6C2"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="18"/>
+          <bgColor indexed="17"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF4AFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="18"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="18"/>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF98EFEA"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="18"/>
+          <bgColor indexed="19"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2397,10 +4183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DG41"/>
+  <dimension ref="A1:DG52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" customHeight="1"/>
@@ -2417,12 +4203,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:111" ht="50" customHeight="1">
-      <c r="A1" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="A1" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4" t="s">
         <v>0</v>
@@ -2651,8 +4437,8 @@
       <c r="DG2" s="5"/>
     </row>
     <row r="3" spans="1:111" ht="35" customHeight="1">
-      <c r="A3" s="57" t="s">
-        <v>97</v>
+      <c r="A3" s="55" t="s">
+        <v>76</v>
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="9" t="s">
@@ -3452,7 +5238,7 @@
     </row>
     <row r="9" spans="1:111" ht="22" customHeight="1">
       <c r="A9" s="27" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="27" t="s">
@@ -3479,11 +5265,11 @@
         <v>44712</v>
       </c>
       <c r="I9" s="32">
-        <f t="shared" ref="I9:I40" si="1">IF(AND(AND(NOT(ISBLANK(F9)),NOT(ISBLANK(H9))),F9&lt;&gt;H9),NETWORKDAYS(F9,H9)-1,"")</f>
+        <f t="shared" ref="I9:I51" si="1">IF(AND(AND(NOT(ISBLANK(F9)),NOT(ISBLANK(H9))),F9&lt;&gt;H9),NETWORKDAYS(F9,H9)-1,"")</f>
         <v>-5</v>
       </c>
       <c r="J9" s="33">
-        <f t="shared" ref="J9:J40" si="2">NETWORKDAYS(G9,H9)</f>
+        <f t="shared" ref="J9:J51" si="2">NETWORKDAYS(G9,H9)</f>
         <v>67</v>
       </c>
       <c r="K9" s="34" t="str">
@@ -3641,7 +5427,7 @@
     </row>
     <row r="10" spans="1:111" ht="22" customHeight="1">
       <c r="A10" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="35" t="s">
@@ -3825,13 +5611,13 @@
     </row>
     <row r="11" spans="1:111" ht="22" customHeight="1">
       <c r="A11" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>38</v>
-      </c>
       <c r="C11" s="35" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="D11" s="37">
         <v>1</v>
@@ -4011,13 +5797,13 @@
     </row>
     <row r="12" spans="1:111" ht="22" customHeight="1">
       <c r="A12" s="35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D12" s="37">
         <v>0.5</v>
@@ -4197,13 +5983,13 @@
     </row>
     <row r="13" spans="1:111" ht="22" customHeight="1">
       <c r="A13" s="35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D13" s="37">
         <v>0.5</v>
@@ -4383,11 +6169,11 @@
     </row>
     <row r="14" spans="1:111" ht="22" customHeight="1">
       <c r="A14" s="35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B14" s="43"/>
       <c r="C14" s="35" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D14" s="37">
         <v>0</v>
@@ -4567,10 +6353,10 @@
     </row>
     <row r="15" spans="1:111" ht="22" customHeight="1">
       <c r="A15" s="35" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C15" s="35" t="s">
         <v>3</v>
@@ -4753,7 +6539,7 @@
     </row>
     <row r="16" spans="1:111" ht="22" customHeight="1">
       <c r="A16" s="35" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B16" s="43"/>
       <c r="C16" s="35" t="s">
@@ -4937,35 +6723,35 @@
     </row>
     <row r="17" spans="1:111" ht="22" customHeight="1">
       <c r="A17" s="44" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B17" s="45"/>
-      <c r="C17" s="44" t="s">
-        <v>51</v>
+      <c r="C17" s="59" t="s">
+        <v>73</v>
       </c>
       <c r="D17" s="46">
-        <f>AVERAGE(D18:D21)</f>
+        <f>AVERAGE(D18:D27)</f>
         <v>0</v>
       </c>
       <c r="E17" s="47">
-        <f>MIN(E18:E21)</f>
+        <f>MIN(E18:E27)</f>
         <v>44648</v>
       </c>
       <c r="F17" s="48">
-        <f>MAX(F18:F21)</f>
-        <v>44654</v>
+        <f>MAX(F18:F27)</f>
+        <v>44676</v>
       </c>
       <c r="G17" s="47">
-        <f>MIN(G18:G21)</f>
+        <f>MIN(G18:G27)</f>
         <v>44648</v>
       </c>
       <c r="H17" s="48">
-        <f>MAX(H18:H21)</f>
+        <f>MAX(H18:H27)</f>
         <v>44652</v>
       </c>
       <c r="I17" s="49">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>-18</v>
       </c>
       <c r="J17" s="50">
         <f t="shared" si="2"/>
@@ -4993,15 +6779,15 @@
       </c>
       <c r="P17" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>entr</v>
+        <v>etr</v>
       </c>
       <c r="Q17" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>entr</v>
+        <v>etr</v>
       </c>
       <c r="R17" s="34" t="str">
         <f t="shared" si="3"/>
-        <v>entr</v>
+        <v>etr</v>
       </c>
       <c r="S17" s="34" t="str">
         <f t="shared" si="3"/>
@@ -5126,13 +6912,13 @@
     </row>
     <row r="18" spans="1:111" ht="22" customHeight="1">
       <c r="A18" s="35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>73</v>
       </c>
       <c r="D18" s="37">
         <v>0</v>
@@ -5141,7 +6927,7 @@
         <v>44648</v>
       </c>
       <c r="F18" s="39">
-        <v>44654</v>
+        <v>44656</v>
       </c>
       <c r="G18" s="38">
         <v>44648</v>
@@ -5151,7 +6937,7 @@
       </c>
       <c r="I18" s="42">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="J18" s="41">
         <f t="shared" si="2"/>
@@ -5312,13 +7098,13 @@
     </row>
     <row r="19" spans="1:111" ht="22" customHeight="1">
       <c r="A19" s="35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>73</v>
       </c>
       <c r="D19" s="37">
         <v>0</v>
@@ -5327,7 +7113,7 @@
         <v>44648</v>
       </c>
       <c r="F19" s="39">
-        <v>44654</v>
+        <v>44661</v>
       </c>
       <c r="G19" s="38">
         <v>44648</v>
@@ -5336,79 +7122,79 @@
         <v>44652</v>
       </c>
       <c r="I19" s="42">
-        <f t="shared" si="1"/>
-        <v>-2</v>
+        <f t="shared" ref="I19" si="5">IF(AND(AND(NOT(ISBLANK(F19)),NOT(ISBLANK(H19))),F19&lt;&gt;H19),NETWORKDAYS(F19,H19)-1,"")</f>
+        <v>-7</v>
       </c>
       <c r="J19" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J19" si="6">NETWORKDAYS(G19,H19)</f>
         <v>5</v>
       </c>
       <c r="K19" s="34" t="str">
-        <f t="shared" ref="K19:T28" si="5">IF(OR(AND(K$8+6&lt;=$G19,K$8+6&lt;=$E19,K$8+6&lt;=$H19,K$8+6&lt;=$F19),AND(K$8+6&lt;=$G19,K$8+6&gt;$E19,K$8+6&lt;=$H19,K$8+6&gt;$F19),AND(K$8+6&gt;$G19,K$8+6&lt;=$E19,K$8+6&gt;$H19,K$8+6&lt;=$F19),AND(K$8+6&gt;$G19,K$8+6&gt;$E19,K$8+6&gt;$H19,K$8+6&gt;$F19)),"entr",IF(OR(AND(K$8+6&lt;=$G19,K$8+6&gt;$E19,K$8+6&lt;=$H19,K$8+6&lt;=$F19),AND(K$8+6&gt;$G19,K$8+6&gt;$E19,K$8+6&gt;$H19,K$8+6&lt;=$F19)),"etr",IF(OR(AND(K$8+6&gt;$G19,K$8+6&lt;=$E19,K$8+6&lt;=$H19,K$8+6&lt;=$F19),AND(K$8+6&gt;$G19,K$8+6&gt;$E19,K$8+6&lt;=$H19,K$8+6&gt;$F19)),"fntr",IF(AND(K$8+6&gt;$G19,K$8+6&gt;$E19,K$8+6&lt;=$H19,K$8+6&lt;=$F19),"ftr","err"))))</f>
+        <f t="shared" ref="K19:T39" si="7">IF(OR(AND(K$8+6&lt;=$G19,K$8+6&lt;=$E19,K$8+6&lt;=$H19,K$8+6&lt;=$F19),AND(K$8+6&lt;=$G19,K$8+6&gt;$E19,K$8+6&lt;=$H19,K$8+6&gt;$F19),AND(K$8+6&gt;$G19,K$8+6&lt;=$E19,K$8+6&gt;$H19,K$8+6&lt;=$F19),AND(K$8+6&gt;$G19,K$8+6&gt;$E19,K$8+6&gt;$H19,K$8+6&gt;$F19)),"entr",IF(OR(AND(K$8+6&lt;=$G19,K$8+6&gt;$E19,K$8+6&lt;=$H19,K$8+6&lt;=$F19),AND(K$8+6&gt;$G19,K$8+6&gt;$E19,K$8+6&gt;$H19,K$8+6&lt;=$F19)),"etr",IF(OR(AND(K$8+6&gt;$G19,K$8+6&lt;=$E19,K$8+6&lt;=$H19,K$8+6&lt;=$F19),AND(K$8+6&gt;$G19,K$8+6&gt;$E19,K$8+6&lt;=$H19,K$8+6&gt;$F19)),"fntr",IF(AND(K$8+6&gt;$G19,K$8+6&gt;$E19,K$8+6&lt;=$H19,K$8+6&lt;=$F19),"ftr","err"))))</f>
         <v>entr</v>
       </c>
       <c r="L19" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="M19" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="N19" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="O19" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>etr</v>
       </c>
       <c r="P19" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>entr</v>
+        <f t="shared" si="7"/>
+        <v>etr</v>
       </c>
       <c r="Q19" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="R19" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="S19" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="T19" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="U19" s="34" t="str">
-        <f t="shared" ref="U19:AA28" si="6">IF(OR(AND(U$8+6&lt;=$G19,U$8+6&lt;=$E19,U$8+6&lt;=$H19,U$8+6&lt;=$F19),AND(U$8+6&lt;=$G19,U$8+6&gt;$E19,U$8+6&lt;=$H19,U$8+6&gt;$F19),AND(U$8+6&gt;$G19,U$8+6&lt;=$E19,U$8+6&gt;$H19,U$8+6&lt;=$F19),AND(U$8+6&gt;$G19,U$8+6&gt;$E19,U$8+6&gt;$H19,U$8+6&gt;$F19)),"entr",IF(OR(AND(U$8+6&lt;=$G19,U$8+6&gt;$E19,U$8+6&lt;=$H19,U$8+6&lt;=$F19),AND(U$8+6&gt;$G19,U$8+6&gt;$E19,U$8+6&gt;$H19,U$8+6&lt;=$F19)),"etr",IF(OR(AND(U$8+6&gt;$G19,U$8+6&lt;=$E19,U$8+6&lt;=$H19,U$8+6&lt;=$F19),AND(U$8+6&gt;$G19,U$8+6&gt;$E19,U$8+6&lt;=$H19,U$8+6&gt;$F19)),"fntr",IF(AND(U$8+6&gt;$G19,U$8+6&gt;$E19,U$8+6&lt;=$H19,U$8+6&lt;=$F19),"ftr","err"))))</f>
+        <f t="shared" ref="U19:AA39" si="8">IF(OR(AND(U$8+6&lt;=$G19,U$8+6&lt;=$E19,U$8+6&lt;=$H19,U$8+6&lt;=$F19),AND(U$8+6&lt;=$G19,U$8+6&gt;$E19,U$8+6&lt;=$H19,U$8+6&gt;$F19),AND(U$8+6&gt;$G19,U$8+6&lt;=$E19,U$8+6&gt;$H19,U$8+6&lt;=$F19),AND(U$8+6&gt;$G19,U$8+6&gt;$E19,U$8+6&gt;$H19,U$8+6&gt;$F19)),"entr",IF(OR(AND(U$8+6&lt;=$G19,U$8+6&gt;$E19,U$8+6&lt;=$H19,U$8+6&lt;=$F19),AND(U$8+6&gt;$G19,U$8+6&gt;$E19,U$8+6&gt;$H19,U$8+6&lt;=$F19)),"etr",IF(OR(AND(U$8+6&gt;$G19,U$8+6&lt;=$E19,U$8+6&lt;=$H19,U$8+6&lt;=$F19),AND(U$8+6&gt;$G19,U$8+6&gt;$E19,U$8+6&lt;=$H19,U$8+6&gt;$F19)),"fntr",IF(AND(U$8+6&gt;$G19,U$8+6&gt;$E19,U$8+6&lt;=$H19,U$8+6&lt;=$F19),"ftr","err"))))</f>
         <v>entr</v>
       </c>
       <c r="V19" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="W19" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="X19" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="Y19" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="Z19" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="AA19" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="AB19" s="21"/>
@@ -5498,13 +7284,13 @@
     </row>
     <row r="20" spans="1:111" ht="22" customHeight="1">
       <c r="A20" s="35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>73</v>
       </c>
       <c r="D20" s="37">
         <v>0</v>
@@ -5513,7 +7299,7 @@
         <v>44648</v>
       </c>
       <c r="F20" s="39">
-        <v>44654</v>
+        <v>44661</v>
       </c>
       <c r="G20" s="38">
         <v>44648</v>
@@ -5523,78 +7309,78 @@
       </c>
       <c r="I20" s="42">
         <f t="shared" si="1"/>
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="J20" s="41">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K20" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="L20" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="M20" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="N20" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="O20" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>etr</v>
       </c>
       <c r="P20" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>entr</v>
+        <f t="shared" si="7"/>
+        <v>etr</v>
       </c>
       <c r="Q20" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="R20" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="S20" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="T20" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="U20" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="V20" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="W20" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="X20" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="Y20" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="Z20" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="AA20" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="AB20" s="21"/>
@@ -5684,13 +7470,13 @@
     </row>
     <row r="21" spans="1:111" ht="22" customHeight="1">
       <c r="A21" s="35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>73</v>
       </c>
       <c r="D21" s="37">
         <v>0</v>
@@ -5699,7 +7485,7 @@
         <v>44648</v>
       </c>
       <c r="F21" s="39">
-        <v>44654</v>
+        <v>44666</v>
       </c>
       <c r="G21" s="38">
         <v>44648</v>
@@ -5708,79 +7494,79 @@
         <v>44652</v>
       </c>
       <c r="I21" s="42">
-        <f t="shared" si="1"/>
-        <v>-2</v>
+        <f t="shared" ref="I21" si="9">IF(AND(AND(NOT(ISBLANK(F21)),NOT(ISBLANK(H21))),F21&lt;&gt;H21),NETWORKDAYS(F21,H21)-1,"")</f>
+        <v>-12</v>
       </c>
       <c r="J21" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J21" si="10">NETWORKDAYS(G21,H21)</f>
         <v>5</v>
       </c>
       <c r="K21" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="L21" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="M21" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="N21" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="O21" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>etr</v>
       </c>
       <c r="P21" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>entr</v>
+        <f t="shared" si="7"/>
+        <v>etr</v>
       </c>
       <c r="Q21" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="R21" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="S21" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="T21" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="U21" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="V21" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="W21" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="X21" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="Y21" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="Z21" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="AA21" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="AB21" s="21"/>
@@ -5869,107 +7655,104 @@
       <c r="DG21" s="5"/>
     </row>
     <row r="22" spans="1:111" ht="22" customHeight="1">
-      <c r="A22" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="46">
-        <f>AVERAGE(D23:D25)</f>
+      <c r="A22" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="37">
         <v>0</v>
       </c>
-      <c r="E22" s="47">
-        <f>MIN(E23:E25)</f>
+      <c r="E22" s="38">
         <v>44648</v>
       </c>
-      <c r="F22" s="48">
-        <f>MAX(F23:F25)</f>
-        <v>44654</v>
-      </c>
-      <c r="G22" s="47">
-        <f>MIN(G23:G25)</f>
+      <c r="F22" s="39">
+        <v>44667</v>
+      </c>
+      <c r="G22" s="38">
         <v>44648</v>
       </c>
-      <c r="H22" s="48">
-        <f>MAX(H23:H25)</f>
+      <c r="H22" s="39">
         <v>44652</v>
       </c>
-      <c r="I22" s="49">
+      <c r="I22" s="42">
         <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="J22" s="50">
+        <v>-12</v>
+      </c>
+      <c r="J22" s="41">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K22" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="L22" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="M22" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="N22" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="O22" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>etr</v>
       </c>
       <c r="P22" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>entr</v>
+        <f t="shared" si="7"/>
+        <v>etr</v>
       </c>
       <c r="Q22" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="R22" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="S22" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="T22" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="U22" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="V22" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="W22" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="X22" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="Y22" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="Z22" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="AA22" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="AB22" s="21"/>
@@ -6059,13 +7842,13 @@
     </row>
     <row r="23" spans="1:111" ht="22" customHeight="1">
       <c r="A23" s="35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="C23" s="58" t="s">
+        <v>73</v>
       </c>
       <c r="D23" s="37">
         <v>0</v>
@@ -6074,7 +7857,7 @@
         <v>44648</v>
       </c>
       <c r="F23" s="39">
-        <v>44654</v>
+        <v>44671</v>
       </c>
       <c r="G23" s="38">
         <v>44648</v>
@@ -6083,79 +7866,79 @@
         <v>44652</v>
       </c>
       <c r="I23" s="42">
-        <f t="shared" si="1"/>
-        <v>-2</v>
+        <f t="shared" ref="I23:I25" si="11">IF(AND(AND(NOT(ISBLANK(F23)),NOT(ISBLANK(H23))),F23&lt;&gt;H23),NETWORKDAYS(F23,H23)-1,"")</f>
+        <v>-15</v>
       </c>
       <c r="J23" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J23:J25" si="12">NETWORKDAYS(G23,H23)</f>
         <v>5</v>
       </c>
       <c r="K23" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="L23" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="M23" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="N23" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="O23" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>etr</v>
       </c>
       <c r="P23" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>entr</v>
+        <f t="shared" si="7"/>
+        <v>etr</v>
       </c>
       <c r="Q23" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>entr</v>
+        <f t="shared" si="7"/>
+        <v>etr</v>
       </c>
       <c r="R23" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="S23" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="T23" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="U23" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="V23" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="W23" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="X23" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="Y23" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="Z23" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="AA23" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="AB23" s="21"/>
@@ -6245,13 +8028,13 @@
     </row>
     <row r="24" spans="1:111" ht="22" customHeight="1">
       <c r="A24" s="35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>73</v>
       </c>
       <c r="D24" s="37">
         <v>0</v>
@@ -6260,7 +8043,7 @@
         <v>44648</v>
       </c>
       <c r="F24" s="39">
-        <v>44654</v>
+        <v>44671</v>
       </c>
       <c r="G24" s="38">
         <v>44648</v>
@@ -6269,79 +8052,79 @@
         <v>44652</v>
       </c>
       <c r="I24" s="42">
-        <f t="shared" si="1"/>
-        <v>-2</v>
+        <f t="shared" si="11"/>
+        <v>-15</v>
       </c>
       <c r="J24" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="K24" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="L24" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="M24" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="N24" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="O24" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>etr</v>
       </c>
       <c r="P24" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>entr</v>
+        <f t="shared" si="7"/>
+        <v>etr</v>
       </c>
       <c r="Q24" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>entr</v>
+        <f t="shared" si="7"/>
+        <v>etr</v>
       </c>
       <c r="R24" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="S24" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="T24" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="U24" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="V24" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="W24" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="X24" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="Y24" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="Z24" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="AA24" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="AB24" s="21"/>
@@ -6430,14 +8213,14 @@
       <c r="DG24" s="5"/>
     </row>
     <row r="25" spans="1:111" ht="22" customHeight="1">
-      <c r="A25" s="35" t="s">
-        <v>66</v>
+      <c r="A25" s="58" t="s">
+        <v>61</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>73</v>
       </c>
       <c r="D25" s="37">
         <v>0</v>
@@ -6446,7 +8229,7 @@
         <v>44648</v>
       </c>
       <c r="F25" s="39">
-        <v>44654</v>
+        <v>44676</v>
       </c>
       <c r="G25" s="38">
         <v>44648</v>
@@ -6455,79 +8238,79 @@
         <v>44652</v>
       </c>
       <c r="I25" s="42">
-        <f t="shared" si="1"/>
-        <v>-2</v>
+        <f t="shared" si="11"/>
+        <v>-18</v>
       </c>
       <c r="J25" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="K25" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="L25" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="M25" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="N25" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="O25" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>etr</v>
       </c>
       <c r="P25" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>entr</v>
+        <f t="shared" si="7"/>
+        <v>etr</v>
       </c>
       <c r="Q25" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>entr</v>
+        <f t="shared" si="7"/>
+        <v>etr</v>
       </c>
       <c r="R25" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>entr</v>
+        <f t="shared" si="7"/>
+        <v>etr</v>
       </c>
       <c r="S25" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="T25" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="U25" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="V25" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="W25" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="X25" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="Y25" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="Z25" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="AA25" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="AB25" s="21"/>
@@ -6616,107 +8399,104 @@
       <c r="DG25" s="5"/>
     </row>
     <row r="26" spans="1:111" ht="22" customHeight="1">
-      <c r="A26" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="46">
-        <f>AVERAGE(D27:D29)</f>
+      <c r="A26" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="37">
         <v>0</v>
       </c>
-      <c r="E26" s="47">
-        <f>MIN(E27:E29)</f>
-        <v>44620</v>
-      </c>
-      <c r="F26" s="48">
-        <f>MAX(F27:F29)</f>
-        <v>44710</v>
-      </c>
-      <c r="G26" s="47">
-        <f>MIN(G27:G29)</f>
-        <v>44620</v>
-      </c>
-      <c r="H26" s="48">
-        <f>MAX(H27:H29)</f>
-        <v>44710</v>
-      </c>
-      <c r="I26" s="51" t="str">
+      <c r="E26" s="38">
+        <v>44648</v>
+      </c>
+      <c r="F26" s="39">
+        <v>44676</v>
+      </c>
+      <c r="G26" s="38">
+        <v>44648</v>
+      </c>
+      <c r="H26" s="39">
+        <v>44652</v>
+      </c>
+      <c r="I26" s="42">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J26" s="50">
+        <v>-18</v>
+      </c>
+      <c r="J26" s="41">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="K26" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>entr</v>
       </c>
       <c r="L26" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>entr</v>
       </c>
       <c r="M26" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>entr</v>
       </c>
       <c r="N26" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>entr</v>
       </c>
       <c r="O26" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>etr</v>
       </c>
       <c r="P26" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>etr</v>
       </c>
       <c r="Q26" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>etr</v>
       </c>
       <c r="R26" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>etr</v>
       </c>
       <c r="S26" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>entr</v>
       </c>
       <c r="T26" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>entr</v>
       </c>
       <c r="U26" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v>ftr</v>
+        <f t="shared" si="8"/>
+        <v>entr</v>
       </c>
       <c r="V26" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v>ftr</v>
+        <f t="shared" si="8"/>
+        <v>entr</v>
       </c>
       <c r="W26" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v>ftr</v>
+        <f t="shared" si="8"/>
+        <v>entr</v>
       </c>
       <c r="X26" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="Y26" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="Z26" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="AA26" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="AB26" s="21"/>
@@ -6805,104 +8585,98 @@
       <c r="DG26" s="5"/>
     </row>
     <row r="27" spans="1:111" ht="22" customHeight="1">
-      <c r="A27" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>39</v>
-      </c>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="37">
         <v>0</v>
       </c>
       <c r="E27" s="38">
-        <v>44620</v>
+        <v>44648</v>
       </c>
       <c r="F27" s="39">
-        <v>44710</v>
+        <v>44676</v>
       </c>
       <c r="G27" s="38">
-        <v>44620</v>
+        <v>44648</v>
       </c>
       <c r="H27" s="39">
-        <v>44710</v>
-      </c>
-      <c r="I27" s="40" t="str">
+        <v>44652</v>
+      </c>
+      <c r="I27" s="42">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-18</v>
       </c>
       <c r="J27" s="41">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="K27" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>entr</v>
       </c>
       <c r="L27" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>entr</v>
       </c>
       <c r="M27" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>entr</v>
       </c>
       <c r="N27" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>entr</v>
       </c>
       <c r="O27" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>etr</v>
       </c>
       <c r="P27" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>etr</v>
       </c>
       <c r="Q27" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>etr</v>
       </c>
       <c r="R27" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>etr</v>
       </c>
       <c r="S27" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>entr</v>
       </c>
       <c r="T27" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>entr</v>
       </c>
       <c r="U27" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v>ftr</v>
+        <f t="shared" si="8"/>
+        <v>entr</v>
       </c>
       <c r="V27" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v>ftr</v>
+        <f t="shared" si="8"/>
+        <v>entr</v>
       </c>
       <c r="W27" s="34" t="str">
-        <f t="shared" si="6"/>
-        <v>ftr</v>
+        <f t="shared" si="8"/>
+        <v>entr</v>
       </c>
       <c r="X27" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="Y27" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="Z27" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="AA27" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="AB27" s="21"/>
@@ -6991,104 +8765,107 @@
       <c r="DG27" s="5"/>
     </row>
     <row r="28" spans="1:111" ht="22" customHeight="1">
-      <c r="A28" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="37">
+      <c r="A28" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="45"/>
+      <c r="C28" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="46">
+        <f>AVERAGE(D29:D35)</f>
         <v>0</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="47">
+        <f>MIN(E29:E35)</f>
         <v>44648</v>
       </c>
-      <c r="F28" s="39">
-        <v>44682</v>
-      </c>
-      <c r="G28" s="38">
-        <v>44655</v>
-      </c>
-      <c r="H28" s="39">
-        <v>44682</v>
-      </c>
-      <c r="I28" s="40" t="str">
+      <c r="F28" s="48">
+        <f>MAX(F29:F35)</f>
+        <v>44676</v>
+      </c>
+      <c r="G28" s="47">
+        <f>MIN(G29:G35)</f>
+        <v>44648</v>
+      </c>
+      <c r="H28" s="48">
+        <f>MAX(H29:H35)</f>
+        <v>44652</v>
+      </c>
+      <c r="I28" s="49">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J28" s="41">
+        <v>-18</v>
+      </c>
+      <c r="J28" s="50">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K28" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="L28" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="M28" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="N28" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="O28" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>etr</v>
       </c>
       <c r="P28" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>etr</v>
       </c>
       <c r="Q28" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>etr</v>
       </c>
       <c r="R28" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>etr</v>
       </c>
       <c r="S28" s="34" t="str">
-        <f t="shared" si="5"/>
-        <v>ftr</v>
+        <f t="shared" si="7"/>
+        <v>entr</v>
       </c>
       <c r="T28" s="34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="U28" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="V28" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="W28" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="X28" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="Y28" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="Z28" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="AA28" s="34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="AB28" s="21"/>
@@ -7178,13 +8955,13 @@
     </row>
     <row r="29" spans="1:111" ht="22" customHeight="1">
       <c r="A29" s="35" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>77</v>
+        <v>48</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>53</v>
       </c>
       <c r="D29" s="37">
         <v>0</v>
@@ -7193,24 +8970,24 @@
         <v>44648</v>
       </c>
       <c r="F29" s="39">
-        <v>44682</v>
+        <v>44654</v>
       </c>
       <c r="G29" s="38">
-        <v>44655</v>
+        <v>44648</v>
       </c>
       <c r="H29" s="39">
-        <v>44682</v>
-      </c>
-      <c r="I29" s="40" t="str">
+        <v>44652</v>
+      </c>
+      <c r="I29" s="42">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-2</v>
       </c>
       <c r="J29" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K29" s="34" t="str">
-        <f t="shared" ref="K29:T40" si="7">IF(OR(AND(K$8+6&lt;=$G29,K$8+6&lt;=$E29,K$8+6&lt;=$H29,K$8+6&lt;=$F29),AND(K$8+6&lt;=$G29,K$8+6&gt;$E29,K$8+6&lt;=$H29,K$8+6&gt;$F29),AND(K$8+6&gt;$G29,K$8+6&lt;=$E29,K$8+6&gt;$H29,K$8+6&lt;=$F29),AND(K$8+6&gt;$G29,K$8+6&gt;$E29,K$8+6&gt;$H29,K$8+6&gt;$F29)),"entr",IF(OR(AND(K$8+6&lt;=$G29,K$8+6&gt;$E29,K$8+6&lt;=$H29,K$8+6&lt;=$F29),AND(K$8+6&gt;$G29,K$8+6&gt;$E29,K$8+6&gt;$H29,K$8+6&lt;=$F29)),"etr",IF(OR(AND(K$8+6&gt;$G29,K$8+6&lt;=$E29,K$8+6&lt;=$H29,K$8+6&lt;=$F29),AND(K$8+6&gt;$G29,K$8+6&gt;$E29,K$8+6&lt;=$H29,K$8+6&gt;$F29)),"fntr",IF(AND(K$8+6&gt;$G29,K$8+6&gt;$E29,K$8+6&lt;=$H29,K$8+6&lt;=$F29),"ftr","err"))))</f>
+        <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="L29" s="34" t="str">
@@ -7231,26 +9008,26 @@
       </c>
       <c r="P29" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="Q29" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="R29" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="S29" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="T29" s="34" t="str">
         <f t="shared" si="7"/>
         <v>entr</v>
       </c>
       <c r="U29" s="34" t="str">
-        <f t="shared" ref="U29:AA40" si="8">IF(OR(AND(U$8+6&lt;=$G29,U$8+6&lt;=$E29,U$8+6&lt;=$H29,U$8+6&lt;=$F29),AND(U$8+6&lt;=$G29,U$8+6&gt;$E29,U$8+6&lt;=$H29,U$8+6&gt;$F29),AND(U$8+6&gt;$G29,U$8+6&lt;=$E29,U$8+6&gt;$H29,U$8+6&lt;=$F29),AND(U$8+6&gt;$G29,U$8+6&gt;$E29,U$8+6&gt;$H29,U$8+6&gt;$F29)),"entr",IF(OR(AND(U$8+6&lt;=$G29,U$8+6&gt;$E29,U$8+6&lt;=$H29,U$8+6&lt;=$F29),AND(U$8+6&gt;$G29,U$8+6&gt;$E29,U$8+6&gt;$H29,U$8+6&lt;=$F29)),"etr",IF(OR(AND(U$8+6&gt;$G29,U$8+6&lt;=$E29,U$8+6&lt;=$H29,U$8+6&lt;=$F29),AND(U$8+6&gt;$G29,U$8+6&gt;$E29,U$8+6&lt;=$H29,U$8+6&gt;$F29)),"fntr",IF(AND(U$8+6&gt;$G29,U$8+6&gt;$E29,U$8+6&lt;=$H29,U$8+6&lt;=$F29),"ftr","err"))))</f>
+        <f t="shared" si="8"/>
         <v>entr</v>
       </c>
       <c r="V29" s="34" t="str">
@@ -7363,40 +9140,37 @@
       <c r="DG29" s="5"/>
     </row>
     <row r="30" spans="1:111" ht="22" customHeight="1">
-      <c r="A30" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="46">
-        <f>AVERAGE(D31:D32)</f>
+      <c r="A30" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="37">
         <v>0</v>
       </c>
-      <c r="E30" s="47">
-        <f>MIN(E31:E32)</f>
+      <c r="E30" s="38">
         <v>44648</v>
       </c>
-      <c r="F30" s="48">
-        <f>MAX(F31:F32)</f>
-        <v>44682</v>
-      </c>
-      <c r="G30" s="47">
-        <f>MIN(G31:G32)</f>
+      <c r="F30" s="39">
+        <v>44661</v>
+      </c>
+      <c r="G30" s="38">
         <v>44648</v>
       </c>
-      <c r="H30" s="48">
-        <f>MAX(H31:H32)</f>
-        <v>44682</v>
-      </c>
-      <c r="I30" s="51" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J30" s="50">
-        <f t="shared" si="2"/>
-        <v>25</v>
+      <c r="H30" s="39">
+        <v>44652</v>
+      </c>
+      <c r="I30" s="42">
+        <f t="shared" ref="I30:I31" si="13">IF(AND(AND(NOT(ISBLANK(F30)),NOT(ISBLANK(H30))),F30&lt;&gt;H30),NETWORKDAYS(F30,H30)-1,"")</f>
+        <v>-7</v>
+      </c>
+      <c r="J30" s="41">
+        <f t="shared" ref="J30:J31" si="14">NETWORKDAYS(G30,H30)</f>
+        <v>5</v>
       </c>
       <c r="K30" s="34" t="str">
         <f t="shared" si="7"/>
@@ -7416,23 +9190,23 @@
       </c>
       <c r="O30" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>etr</v>
       </c>
       <c r="P30" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>etr</v>
       </c>
       <c r="Q30" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="R30" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="S30" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="T30" s="34" t="str">
         <f t="shared" si="7"/>
@@ -7553,13 +9327,13 @@
     </row>
     <row r="31" spans="1:111" ht="22" customHeight="1">
       <c r="A31" s="35" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>82</v>
+        <v>49</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>53</v>
       </c>
       <c r="D31" s="37">
         <v>0</v>
@@ -7568,7 +9342,7 @@
         <v>44648</v>
       </c>
       <c r="F31" s="39">
-        <v>44652</v>
+        <v>44661</v>
       </c>
       <c r="G31" s="38">
         <v>44648</v>
@@ -7576,12 +9350,12 @@
       <c r="H31" s="39">
         <v>44652</v>
       </c>
-      <c r="I31" s="40" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+      <c r="I31" s="42">
+        <f t="shared" si="13"/>
+        <v>-7</v>
       </c>
       <c r="J31" s="41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="K31" s="34" t="str">
@@ -7602,11 +9376,11 @@
       </c>
       <c r="O31" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>entr</v>
+        <v>etr</v>
       </c>
       <c r="P31" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>entr</v>
+        <v>etr</v>
       </c>
       <c r="Q31" s="34" t="str">
         <f t="shared" si="7"/>
@@ -7739,13 +9513,13 @@
     </row>
     <row r="32" spans="1:111" ht="22" customHeight="1">
       <c r="A32" s="35" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>79</v>
+        <v>49</v>
+      </c>
+      <c r="C32" s="58" t="s">
+        <v>53</v>
       </c>
       <c r="D32" s="37">
         <v>0</v>
@@ -7754,21 +9528,21 @@
         <v>44648</v>
       </c>
       <c r="F32" s="39">
-        <v>44682</v>
+        <v>44666</v>
       </c>
       <c r="G32" s="38">
         <v>44648</v>
       </c>
       <c r="H32" s="39">
-        <v>44682</v>
-      </c>
-      <c r="I32" s="40" t="str">
+        <v>44652</v>
+      </c>
+      <c r="I32" s="42">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-12</v>
       </c>
       <c r="J32" s="41">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K32" s="34" t="str">
         <f t="shared" si="7"/>
@@ -7788,23 +9562,23 @@
       </c>
       <c r="O32" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>etr</v>
       </c>
       <c r="P32" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>etr</v>
       </c>
       <c r="Q32" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="R32" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="S32" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="T32" s="34" t="str">
         <f t="shared" si="7"/>
@@ -7924,40 +9698,37 @@
       <c r="DG32" s="5"/>
     </row>
     <row r="33" spans="1:111" ht="22" customHeight="1">
-      <c r="A33" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="46">
-        <f>AVERAGE(D34:D35)</f>
+      <c r="A33" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="37">
         <v>0</v>
       </c>
-      <c r="E33" s="47">
-        <f>MIN(E34:E35)</f>
+      <c r="E33" s="38">
         <v>44648</v>
       </c>
-      <c r="F33" s="48">
-        <f>MAX(F34:F35)</f>
-        <v>44710</v>
-      </c>
-      <c r="G33" s="47">
-        <f>MIN(G34:G35)</f>
+      <c r="F33" s="39">
+        <v>44666</v>
+      </c>
+      <c r="G33" s="38">
         <v>44648</v>
       </c>
-      <c r="H33" s="48">
-        <f>MAX(H34:H35)</f>
-        <v>44710</v>
-      </c>
-      <c r="I33" s="51" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J33" s="50">
-        <f t="shared" si="2"/>
-        <v>45</v>
+      <c r="H33" s="39">
+        <v>44652</v>
+      </c>
+      <c r="I33" s="42">
+        <f t="shared" ref="I33" si="15">IF(AND(AND(NOT(ISBLANK(F33)),NOT(ISBLANK(H33))),F33&lt;&gt;H33),NETWORKDAYS(F33,H33)-1,"")</f>
+        <v>-12</v>
+      </c>
+      <c r="J33" s="41">
+        <f t="shared" ref="J33" si="16">NETWORKDAYS(G33,H33)</f>
+        <v>5</v>
       </c>
       <c r="K33" s="34" t="str">
         <f t="shared" si="7"/>
@@ -7977,39 +9748,39 @@
       </c>
       <c r="O33" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>etr</v>
       </c>
       <c r="P33" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>etr</v>
       </c>
       <c r="Q33" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="R33" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="S33" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="T33" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="U33" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="V33" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="W33" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="X33" s="34" t="str">
         <f t="shared" si="8"/>
@@ -8114,11 +9885,13 @@
     </row>
     <row r="34" spans="1:111" ht="22" customHeight="1">
       <c r="A34" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="35" t="s">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>53</v>
       </c>
       <c r="D34" s="37">
         <v>0</v>
@@ -8127,21 +9900,21 @@
         <v>44648</v>
       </c>
       <c r="F34" s="39">
-        <v>44682</v>
+        <v>44671</v>
       </c>
       <c r="G34" s="38">
         <v>44648</v>
       </c>
       <c r="H34" s="39">
-        <v>44682</v>
-      </c>
-      <c r="I34" s="40" t="str">
+        <v>44652</v>
+      </c>
+      <c r="I34" s="42">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-15</v>
       </c>
       <c r="J34" s="41">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K34" s="34" t="str">
         <f t="shared" si="7"/>
@@ -8161,23 +9934,23 @@
       </c>
       <c r="O34" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>etr</v>
       </c>
       <c r="P34" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>etr</v>
       </c>
       <c r="Q34" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>etr</v>
       </c>
       <c r="R34" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="S34" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="T34" s="34" t="str">
         <f t="shared" si="7"/>
@@ -8297,37 +10070,31 @@
       <c r="DG34" s="5"/>
     </row>
     <row r="35" spans="1:111" ht="22" customHeight="1">
-      <c r="A35" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>42</v>
-      </c>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
       <c r="D35" s="37">
         <v>0</v>
       </c>
       <c r="E35" s="38">
-        <v>44683</v>
+        <v>44648</v>
       </c>
       <c r="F35" s="39">
-        <v>44710</v>
+        <v>44676</v>
       </c>
       <c r="G35" s="38">
-        <v>44683</v>
+        <v>44648</v>
       </c>
       <c r="H35" s="39">
-        <v>44710</v>
-      </c>
-      <c r="I35" s="40" t="str">
+        <v>44652</v>
+      </c>
+      <c r="I35" s="42">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-18</v>
       </c>
       <c r="J35" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K35" s="34" t="str">
         <f t="shared" si="7"/>
@@ -8347,19 +10114,19 @@
       </c>
       <c r="O35" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>entr</v>
+        <v>etr</v>
       </c>
       <c r="P35" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>entr</v>
+        <v>etr</v>
       </c>
       <c r="Q35" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>entr</v>
+        <v>etr</v>
       </c>
       <c r="R35" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>entr</v>
+        <v>etr</v>
       </c>
       <c r="S35" s="34" t="str">
         <f t="shared" si="7"/>
@@ -8367,19 +10134,19 @@
       </c>
       <c r="T35" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="U35" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="V35" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="W35" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="X35" s="34" t="str">
         <f t="shared" si="8"/>
@@ -8484,39 +10251,39 @@
     </row>
     <row r="36" spans="1:111" ht="22" customHeight="1">
       <c r="A36" s="44" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B36" s="45"/>
-      <c r="C36" s="44" t="s">
-        <v>44</v>
+      <c r="C36" s="59" t="s">
+        <v>72</v>
       </c>
       <c r="D36" s="46">
-        <f>AVERAGE(D37:D37)</f>
+        <f>AVERAGE(D37:D40)</f>
         <v>0</v>
       </c>
       <c r="E36" s="47">
-        <f>MIN(E37)</f>
-        <v>44683</v>
+        <f>MIN(E37:E40)</f>
+        <v>44648</v>
       </c>
       <c r="F36" s="48">
-        <f>MAX(F37)</f>
-        <v>44710</v>
+        <f>MAX(F37:F40)</f>
+        <v>44691</v>
       </c>
       <c r="G36" s="47">
-        <f>MIN(G37)</f>
-        <v>44683</v>
+        <f>MIN(G37:G40)</f>
+        <v>44648</v>
       </c>
       <c r="H36" s="48">
-        <f>MAX(H37)</f>
-        <v>44710</v>
-      </c>
-      <c r="I36" s="51" t="str">
+        <f>MAX(H37:H40)</f>
+        <v>44682</v>
+      </c>
+      <c r="I36" s="51">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-8</v>
       </c>
       <c r="J36" s="50">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K36" s="34" t="str">
         <f t="shared" si="7"/>
@@ -8536,39 +10303,39 @@
       </c>
       <c r="O36" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>entr</v>
+        <v>ftr</v>
       </c>
       <c r="P36" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>entr</v>
+        <v>ftr</v>
       </c>
       <c r="Q36" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>entr</v>
+        <v>ftr</v>
       </c>
       <c r="R36" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>entr</v>
+        <v>ftr</v>
       </c>
       <c r="S36" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>entr</v>
+        <v>ftr</v>
       </c>
       <c r="T36" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>etr</v>
       </c>
       <c r="U36" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="V36" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="W36" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="X36" s="34" t="str">
         <f t="shared" si="8"/>
@@ -8673,36 +10440,36 @@
     </row>
     <row r="37" spans="1:111" ht="22" customHeight="1">
       <c r="A37" s="35" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>72</v>
       </c>
       <c r="D37" s="37">
         <v>0</v>
       </c>
       <c r="E37" s="38">
-        <v>44683</v>
+        <v>44648</v>
       </c>
       <c r="F37" s="39">
-        <v>44710</v>
+        <v>44661</v>
       </c>
       <c r="G37" s="38">
-        <v>44683</v>
+        <v>44648</v>
       </c>
       <c r="H37" s="39">
-        <v>44710</v>
-      </c>
-      <c r="I37" s="40" t="str">
+        <v>44651</v>
+      </c>
+      <c r="I37" s="40">
         <f t="shared" si="1"/>
-        <v/>
+        <v>-8</v>
       </c>
       <c r="J37" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="K37" s="34" t="str">
         <f t="shared" si="7"/>
@@ -8722,11 +10489,11 @@
       </c>
       <c r="O37" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>entr</v>
+        <v>etr</v>
       </c>
       <c r="P37" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>entr</v>
+        <v>etr</v>
       </c>
       <c r="Q37" s="34" t="str">
         <f t="shared" si="7"/>
@@ -8742,19 +10509,19 @@
       </c>
       <c r="T37" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="U37" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="V37" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="W37" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>ftr</v>
+        <v>entr</v>
       </c>
       <c r="X37" s="34" t="str">
         <f t="shared" si="8"/>
@@ -8858,40 +10625,37 @@
       <c r="DG37" s="5"/>
     </row>
     <row r="38" spans="1:111" ht="22" customHeight="1">
-      <c r="A38" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="46">
-        <f>AVERAGE(D39:D40)</f>
+      <c r="A38" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="37">
         <v>0</v>
       </c>
-      <c r="E38" s="47">
-        <f>MIN(E39:E40)</f>
+      <c r="E38" s="38">
         <v>44648</v>
       </c>
-      <c r="F38" s="48">
-        <f>MAX(F39:F40)</f>
+      <c r="F38" s="39">
         <v>44682</v>
       </c>
-      <c r="G38" s="47">
-        <f>MIN(G39:G40)</f>
-        <v>44648</v>
-      </c>
-      <c r="H38" s="48">
-        <f>MAX(H39:H40)</f>
+      <c r="G38" s="38">
+        <v>44649</v>
+      </c>
+      <c r="H38" s="39">
         <v>44682</v>
       </c>
-      <c r="I38" s="51" t="str">
-        <f t="shared" si="1"/>
+      <c r="I38" s="40" t="str">
+        <f t="shared" ref="I38" si="17">IF(AND(AND(NOT(ISBLANK(F38)),NOT(ISBLANK(H38))),F38&lt;&gt;H38),NETWORKDAYS(F38,H38)-1,"")</f>
         <v/>
       </c>
-      <c r="J38" s="50">
-        <f t="shared" si="2"/>
-        <v>25</v>
+      <c r="J38" s="41">
+        <f t="shared" ref="J38" si="18">NETWORKDAYS(G38,H38)</f>
+        <v>24</v>
       </c>
       <c r="K38" s="34" t="str">
         <f t="shared" si="7"/>
@@ -9048,13 +10812,13 @@
     </row>
     <row r="39" spans="1:111" ht="22" customHeight="1">
       <c r="A39" s="35" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>39</v>
+        <v>51</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>72</v>
       </c>
       <c r="D39" s="37">
         <v>0</v>
@@ -9063,21 +10827,17 @@
         <v>44648</v>
       </c>
       <c r="F39" s="39">
-        <v>44654</v>
-      </c>
-      <c r="G39" s="38">
-        <v>44648</v>
-      </c>
-      <c r="H39" s="39">
-        <v>44654</v>
-      </c>
+        <v>44691</v>
+      </c>
+      <c r="G39" s="38"/>
+      <c r="H39" s="39"/>
       <c r="I39" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J39" s="41">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K39" s="34" t="str">
         <f t="shared" si="7"/>
@@ -9097,27 +10857,27 @@
       </c>
       <c r="O39" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>ftr</v>
+        <v>etr</v>
       </c>
       <c r="P39" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>entr</v>
+        <v>etr</v>
       </c>
       <c r="Q39" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>entr</v>
+        <v>etr</v>
       </c>
       <c r="R39" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>entr</v>
+        <v>etr</v>
       </c>
       <c r="S39" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>entr</v>
+        <v>etr</v>
       </c>
       <c r="T39" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>entr</v>
+        <v>etr</v>
       </c>
       <c r="U39" s="34" t="str">
         <f t="shared" si="8"/>
@@ -9233,104 +10993,94 @@
       <c r="DG39" s="5"/>
     </row>
     <row r="40" spans="1:111" ht="22" customHeight="1">
-      <c r="A40" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>82</v>
-      </c>
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="37">
         <v>0</v>
       </c>
       <c r="E40" s="38">
-        <v>44655</v>
+        <v>44648</v>
       </c>
       <c r="F40" s="39">
         <v>44682</v>
       </c>
-      <c r="G40" s="38">
-        <v>44655</v>
-      </c>
-      <c r="H40" s="39">
-        <v>44682</v>
-      </c>
+      <c r="G40" s="38"/>
+      <c r="H40" s="39"/>
       <c r="I40" s="40" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J40" s="41">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K40" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K40:T51" si="19">IF(OR(AND(K$8+6&lt;=$G40,K$8+6&lt;=$E40,K$8+6&lt;=$H40,K$8+6&lt;=$F40),AND(K$8+6&lt;=$G40,K$8+6&gt;$E40,K$8+6&lt;=$H40,K$8+6&gt;$F40),AND(K$8+6&gt;$G40,K$8+6&lt;=$E40,K$8+6&gt;$H40,K$8+6&lt;=$F40),AND(K$8+6&gt;$G40,K$8+6&gt;$E40,K$8+6&gt;$H40,K$8+6&gt;$F40)),"entr",IF(OR(AND(K$8+6&lt;=$G40,K$8+6&gt;$E40,K$8+6&lt;=$H40,K$8+6&lt;=$F40),AND(K$8+6&gt;$G40,K$8+6&gt;$E40,K$8+6&gt;$H40,K$8+6&lt;=$F40)),"etr",IF(OR(AND(K$8+6&gt;$G40,K$8+6&lt;=$E40,K$8+6&lt;=$H40,K$8+6&lt;=$F40),AND(K$8+6&gt;$G40,K$8+6&gt;$E40,K$8+6&lt;=$H40,K$8+6&gt;$F40)),"fntr",IF(AND(K$8+6&gt;$G40,K$8+6&gt;$E40,K$8+6&lt;=$H40,K$8+6&lt;=$F40),"ftr","err"))))</f>
         <v>entr</v>
       </c>
       <c r="L40" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>entr</v>
       </c>
       <c r="M40" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>entr</v>
       </c>
       <c r="N40" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>entr</v>
       </c>
       <c r="O40" s="34" t="str">
-        <f t="shared" si="7"/>
-        <v>entr</v>
+        <f t="shared" si="19"/>
+        <v>etr</v>
       </c>
       <c r="P40" s="34" t="str">
-        <f t="shared" si="7"/>
-        <v>ftr</v>
+        <f t="shared" si="19"/>
+        <v>etr</v>
       </c>
       <c r="Q40" s="34" t="str">
-        <f t="shared" si="7"/>
-        <v>ftr</v>
+        <f t="shared" si="19"/>
+        <v>etr</v>
       </c>
       <c r="R40" s="34" t="str">
-        <f t="shared" si="7"/>
-        <v>ftr</v>
+        <f t="shared" si="19"/>
+        <v>etr</v>
       </c>
       <c r="S40" s="34" t="str">
-        <f t="shared" si="7"/>
-        <v>ftr</v>
+        <f t="shared" si="19"/>
+        <v>etr</v>
       </c>
       <c r="T40" s="34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>entr</v>
       </c>
       <c r="U40" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="U40:AA51" si="20">IF(OR(AND(U$8+6&lt;=$G40,U$8+6&lt;=$E40,U$8+6&lt;=$H40,U$8+6&lt;=$F40),AND(U$8+6&lt;=$G40,U$8+6&gt;$E40,U$8+6&lt;=$H40,U$8+6&gt;$F40),AND(U$8+6&gt;$G40,U$8+6&lt;=$E40,U$8+6&gt;$H40,U$8+6&lt;=$F40),AND(U$8+6&gt;$G40,U$8+6&gt;$E40,U$8+6&gt;$H40,U$8+6&gt;$F40)),"entr",IF(OR(AND(U$8+6&lt;=$G40,U$8+6&gt;$E40,U$8+6&lt;=$H40,U$8+6&lt;=$F40),AND(U$8+6&gt;$G40,U$8+6&gt;$E40,U$8+6&gt;$H40,U$8+6&lt;=$F40)),"etr",IF(OR(AND(U$8+6&gt;$G40,U$8+6&lt;=$E40,U$8+6&lt;=$H40,U$8+6&lt;=$F40),AND(U$8+6&gt;$G40,U$8+6&gt;$E40,U$8+6&lt;=$H40,U$8+6&gt;$F40)),"fntr",IF(AND(U$8+6&gt;$G40,U$8+6&gt;$E40,U$8+6&lt;=$H40,U$8+6&lt;=$F40),"ftr","err"))))</f>
         <v>entr</v>
       </c>
       <c r="V40" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>entr</v>
       </c>
       <c r="W40" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>entr</v>
       </c>
       <c r="X40" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>entr</v>
       </c>
       <c r="Y40" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>entr</v>
       </c>
       <c r="Z40" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>entr</v>
       </c>
       <c r="AA40" s="34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>entr</v>
       </c>
       <c r="AB40" s="21"/>
@@ -9418,35 +11168,111 @@
       <c r="DF40" s="5"/>
       <c r="DG40" s="5"/>
     </row>
-    <row r="41" spans="1:111" ht="16" customHeight="1">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="52"/>
-      <c r="O41" s="52"/>
-      <c r="P41" s="52"/>
-      <c r="Q41" s="52"/>
-      <c r="R41" s="52"/>
-      <c r="S41" s="52"/>
-      <c r="T41" s="52"/>
-      <c r="U41" s="52"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="52"/>
-      <c r="Y41" s="52"/>
-      <c r="Z41" s="52"/>
-      <c r="AA41" s="52"/>
-      <c r="AB41" s="5"/>
+    <row r="41" spans="1:111" ht="22" customHeight="1">
+      <c r="A41" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="45"/>
+      <c r="C41" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="46">
+        <f>AVERAGE(D42:D43)</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="47">
+        <f>MIN(E42:E43)</f>
+        <v>44648</v>
+      </c>
+      <c r="F41" s="48">
+        <f>MAX(F42:F43)</f>
+        <v>44682</v>
+      </c>
+      <c r="G41" s="47">
+        <f>MIN(G42:G43)</f>
+        <v>44648</v>
+      </c>
+      <c r="H41" s="48">
+        <f>MAX(H42:H43)</f>
+        <v>44682</v>
+      </c>
+      <c r="I41" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J41" s="50">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="K41" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="L41" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="M41" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="N41" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="O41" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="P41" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="Q41" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="R41" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="S41" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="T41" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="U41" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="V41" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="W41" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="X41" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="Y41" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="Z41" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="AA41" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="AB41" s="21"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
@@ -9531,6 +11357,1946 @@
       <c r="DF41" s="5"/>
       <c r="DG41" s="5"/>
     </row>
+    <row r="42" spans="1:111" ht="22" customHeight="1">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="37">
+        <v>0</v>
+      </c>
+      <c r="E42" s="38">
+        <v>44648</v>
+      </c>
+      <c r="F42" s="39">
+        <v>44652</v>
+      </c>
+      <c r="G42" s="38">
+        <v>44648</v>
+      </c>
+      <c r="H42" s="39">
+        <v>44652</v>
+      </c>
+      <c r="I42" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J42" s="41">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K42" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="L42" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="M42" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="N42" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="O42" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="P42" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="Q42" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="R42" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="S42" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="T42" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="U42" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="V42" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="W42" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="X42" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="Y42" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="Z42" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="AA42" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="AB42" s="21"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="5"/>
+      <c r="AQ42" s="5"/>
+      <c r="AR42" s="5"/>
+      <c r="AS42" s="5"/>
+      <c r="AT42" s="5"/>
+      <c r="AU42" s="5"/>
+      <c r="AV42" s="5"/>
+      <c r="AW42" s="5"/>
+      <c r="AX42" s="5"/>
+      <c r="AY42" s="5"/>
+      <c r="AZ42" s="5"/>
+      <c r="BA42" s="5"/>
+      <c r="BB42" s="5"/>
+      <c r="BC42" s="5"/>
+      <c r="BD42" s="5"/>
+      <c r="BE42" s="5"/>
+      <c r="BF42" s="5"/>
+      <c r="BG42" s="5"/>
+      <c r="BH42" s="5"/>
+      <c r="BI42" s="5"/>
+      <c r="BJ42" s="5"/>
+      <c r="BK42" s="5"/>
+      <c r="BL42" s="5"/>
+      <c r="BM42" s="5"/>
+      <c r="BN42" s="5"/>
+      <c r="BO42" s="5"/>
+      <c r="BP42" s="5"/>
+      <c r="BQ42" s="5"/>
+      <c r="BR42" s="5"/>
+      <c r="BS42" s="5"/>
+      <c r="BT42" s="5"/>
+      <c r="BU42" s="5"/>
+      <c r="BV42" s="5"/>
+      <c r="BW42" s="5"/>
+      <c r="BX42" s="5"/>
+      <c r="BY42" s="5"/>
+      <c r="BZ42" s="5"/>
+      <c r="CA42" s="5"/>
+      <c r="CB42" s="5"/>
+      <c r="CC42" s="5"/>
+      <c r="CD42" s="5"/>
+      <c r="CE42" s="5"/>
+      <c r="CF42" s="5"/>
+      <c r="CG42" s="5"/>
+      <c r="CH42" s="5"/>
+      <c r="CI42" s="5"/>
+      <c r="CJ42" s="5"/>
+      <c r="CK42" s="5"/>
+      <c r="CL42" s="5"/>
+      <c r="CM42" s="5"/>
+      <c r="CN42" s="5"/>
+      <c r="CO42" s="5"/>
+      <c r="CP42" s="5"/>
+      <c r="CQ42" s="5"/>
+      <c r="CR42" s="5"/>
+      <c r="CS42" s="5"/>
+      <c r="CT42" s="5"/>
+      <c r="CU42" s="5"/>
+      <c r="CV42" s="5"/>
+      <c r="CW42" s="5"/>
+      <c r="CX42" s="5"/>
+      <c r="CY42" s="5"/>
+      <c r="CZ42" s="5"/>
+      <c r="DA42" s="5"/>
+      <c r="DB42" s="5"/>
+      <c r="DC42" s="5"/>
+      <c r="DD42" s="5"/>
+      <c r="DE42" s="5"/>
+      <c r="DF42" s="5"/>
+      <c r="DG42" s="5"/>
+    </row>
+    <row r="43" spans="1:111" ht="22" customHeight="1">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="37">
+        <v>0</v>
+      </c>
+      <c r="E43" s="38">
+        <v>44648</v>
+      </c>
+      <c r="F43" s="39">
+        <v>44682</v>
+      </c>
+      <c r="G43" s="38">
+        <v>44648</v>
+      </c>
+      <c r="H43" s="39">
+        <v>44682</v>
+      </c>
+      <c r="I43" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J43" s="41">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="K43" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="L43" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="M43" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="N43" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="O43" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="P43" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="Q43" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="R43" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="S43" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="T43" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="U43" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="V43" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="W43" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="X43" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="Y43" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="Z43" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="AA43" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="AB43" s="21"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="5"/>
+      <c r="AH43" s="5"/>
+      <c r="AI43" s="5"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+      <c r="AQ43" s="5"/>
+      <c r="AR43" s="5"/>
+      <c r="AS43" s="5"/>
+      <c r="AT43" s="5"/>
+      <c r="AU43" s="5"/>
+      <c r="AV43" s="5"/>
+      <c r="AW43" s="5"/>
+      <c r="AX43" s="5"/>
+      <c r="AY43" s="5"/>
+      <c r="AZ43" s="5"/>
+      <c r="BA43" s="5"/>
+      <c r="BB43" s="5"/>
+      <c r="BC43" s="5"/>
+      <c r="BD43" s="5"/>
+      <c r="BE43" s="5"/>
+      <c r="BF43" s="5"/>
+      <c r="BG43" s="5"/>
+      <c r="BH43" s="5"/>
+      <c r="BI43" s="5"/>
+      <c r="BJ43" s="5"/>
+      <c r="BK43" s="5"/>
+      <c r="BL43" s="5"/>
+      <c r="BM43" s="5"/>
+      <c r="BN43" s="5"/>
+      <c r="BO43" s="5"/>
+      <c r="BP43" s="5"/>
+      <c r="BQ43" s="5"/>
+      <c r="BR43" s="5"/>
+      <c r="BS43" s="5"/>
+      <c r="BT43" s="5"/>
+      <c r="BU43" s="5"/>
+      <c r="BV43" s="5"/>
+      <c r="BW43" s="5"/>
+      <c r="BX43" s="5"/>
+      <c r="BY43" s="5"/>
+      <c r="BZ43" s="5"/>
+      <c r="CA43" s="5"/>
+      <c r="CB43" s="5"/>
+      <c r="CC43" s="5"/>
+      <c r="CD43" s="5"/>
+      <c r="CE43" s="5"/>
+      <c r="CF43" s="5"/>
+      <c r="CG43" s="5"/>
+      <c r="CH43" s="5"/>
+      <c r="CI43" s="5"/>
+      <c r="CJ43" s="5"/>
+      <c r="CK43" s="5"/>
+      <c r="CL43" s="5"/>
+      <c r="CM43" s="5"/>
+      <c r="CN43" s="5"/>
+      <c r="CO43" s="5"/>
+      <c r="CP43" s="5"/>
+      <c r="CQ43" s="5"/>
+      <c r="CR43" s="5"/>
+      <c r="CS43" s="5"/>
+      <c r="CT43" s="5"/>
+      <c r="CU43" s="5"/>
+      <c r="CV43" s="5"/>
+      <c r="CW43" s="5"/>
+      <c r="CX43" s="5"/>
+      <c r="CY43" s="5"/>
+      <c r="CZ43" s="5"/>
+      <c r="DA43" s="5"/>
+      <c r="DB43" s="5"/>
+      <c r="DC43" s="5"/>
+      <c r="DD43" s="5"/>
+      <c r="DE43" s="5"/>
+      <c r="DF43" s="5"/>
+      <c r="DG43" s="5"/>
+    </row>
+    <row r="44" spans="1:111" ht="22" customHeight="1">
+      <c r="A44" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="45"/>
+      <c r="C44" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="46">
+        <f>AVERAGE(D45:D46)</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="47">
+        <f>MIN(E45:E46)</f>
+        <v>44648</v>
+      </c>
+      <c r="F44" s="48">
+        <f>MAX(F45:F46)</f>
+        <v>44710</v>
+      </c>
+      <c r="G44" s="47">
+        <f>MIN(G45:G46)</f>
+        <v>44648</v>
+      </c>
+      <c r="H44" s="48">
+        <f>MAX(H45:H46)</f>
+        <v>44710</v>
+      </c>
+      <c r="I44" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J44" s="50">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="K44" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="L44" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="M44" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="N44" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="O44" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="P44" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="Q44" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="R44" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="S44" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="T44" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="U44" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>ftr</v>
+      </c>
+      <c r="V44" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>ftr</v>
+      </c>
+      <c r="W44" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>ftr</v>
+      </c>
+      <c r="X44" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="Y44" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="Z44" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="AA44" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="5"/>
+      <c r="AS44" s="5"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="5"/>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="5"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="5"/>
+      <c r="BA44" s="5"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="5"/>
+      <c r="BE44" s="5"/>
+      <c r="BF44" s="5"/>
+      <c r="BG44" s="5"/>
+      <c r="BH44" s="5"/>
+      <c r="BI44" s="5"/>
+      <c r="BJ44" s="5"/>
+      <c r="BK44" s="5"/>
+      <c r="BL44" s="5"/>
+      <c r="BM44" s="5"/>
+      <c r="BN44" s="5"/>
+      <c r="BO44" s="5"/>
+      <c r="BP44" s="5"/>
+      <c r="BQ44" s="5"/>
+      <c r="BR44" s="5"/>
+      <c r="BS44" s="5"/>
+      <c r="BT44" s="5"/>
+      <c r="BU44" s="5"/>
+      <c r="BV44" s="5"/>
+      <c r="BW44" s="5"/>
+      <c r="BX44" s="5"/>
+      <c r="BY44" s="5"/>
+      <c r="BZ44" s="5"/>
+      <c r="CA44" s="5"/>
+      <c r="CB44" s="5"/>
+      <c r="CC44" s="5"/>
+      <c r="CD44" s="5"/>
+      <c r="CE44" s="5"/>
+      <c r="CF44" s="5"/>
+      <c r="CG44" s="5"/>
+      <c r="CH44" s="5"/>
+      <c r="CI44" s="5"/>
+      <c r="CJ44" s="5"/>
+      <c r="CK44" s="5"/>
+      <c r="CL44" s="5"/>
+      <c r="CM44" s="5"/>
+      <c r="CN44" s="5"/>
+      <c r="CO44" s="5"/>
+      <c r="CP44" s="5"/>
+      <c r="CQ44" s="5"/>
+      <c r="CR44" s="5"/>
+      <c r="CS44" s="5"/>
+      <c r="CT44" s="5"/>
+      <c r="CU44" s="5"/>
+      <c r="CV44" s="5"/>
+      <c r="CW44" s="5"/>
+      <c r="CX44" s="5"/>
+      <c r="CY44" s="5"/>
+      <c r="CZ44" s="5"/>
+      <c r="DA44" s="5"/>
+      <c r="DB44" s="5"/>
+      <c r="DC44" s="5"/>
+      <c r="DD44" s="5"/>
+      <c r="DE44" s="5"/>
+      <c r="DF44" s="5"/>
+      <c r="DG44" s="5"/>
+    </row>
+    <row r="45" spans="1:111" ht="22" customHeight="1">
+      <c r="A45" s="35"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="37">
+        <v>0</v>
+      </c>
+      <c r="E45" s="38">
+        <v>44648</v>
+      </c>
+      <c r="F45" s="39">
+        <v>44682</v>
+      </c>
+      <c r="G45" s="38">
+        <v>44648</v>
+      </c>
+      <c r="H45" s="39">
+        <v>44682</v>
+      </c>
+      <c r="I45" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J45" s="41">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="K45" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="L45" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="M45" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="N45" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="O45" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="P45" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="Q45" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="R45" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="S45" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="T45" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="U45" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="V45" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="W45" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="X45" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="Y45" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="Z45" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="AA45" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="AB45" s="21"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
+      <c r="AQ45" s="5"/>
+      <c r="AR45" s="5"/>
+      <c r="AS45" s="5"/>
+      <c r="AT45" s="5"/>
+      <c r="AU45" s="5"/>
+      <c r="AV45" s="5"/>
+      <c r="AW45" s="5"/>
+      <c r="AX45" s="5"/>
+      <c r="AY45" s="5"/>
+      <c r="AZ45" s="5"/>
+      <c r="BA45" s="5"/>
+      <c r="BB45" s="5"/>
+      <c r="BC45" s="5"/>
+      <c r="BD45" s="5"/>
+      <c r="BE45" s="5"/>
+      <c r="BF45" s="5"/>
+      <c r="BG45" s="5"/>
+      <c r="BH45" s="5"/>
+      <c r="BI45" s="5"/>
+      <c r="BJ45" s="5"/>
+      <c r="BK45" s="5"/>
+      <c r="BL45" s="5"/>
+      <c r="BM45" s="5"/>
+      <c r="BN45" s="5"/>
+      <c r="BO45" s="5"/>
+      <c r="BP45" s="5"/>
+      <c r="BQ45" s="5"/>
+      <c r="BR45" s="5"/>
+      <c r="BS45" s="5"/>
+      <c r="BT45" s="5"/>
+      <c r="BU45" s="5"/>
+      <c r="BV45" s="5"/>
+      <c r="BW45" s="5"/>
+      <c r="BX45" s="5"/>
+      <c r="BY45" s="5"/>
+      <c r="BZ45" s="5"/>
+      <c r="CA45" s="5"/>
+      <c r="CB45" s="5"/>
+      <c r="CC45" s="5"/>
+      <c r="CD45" s="5"/>
+      <c r="CE45" s="5"/>
+      <c r="CF45" s="5"/>
+      <c r="CG45" s="5"/>
+      <c r="CH45" s="5"/>
+      <c r="CI45" s="5"/>
+      <c r="CJ45" s="5"/>
+      <c r="CK45" s="5"/>
+      <c r="CL45" s="5"/>
+      <c r="CM45" s="5"/>
+      <c r="CN45" s="5"/>
+      <c r="CO45" s="5"/>
+      <c r="CP45" s="5"/>
+      <c r="CQ45" s="5"/>
+      <c r="CR45" s="5"/>
+      <c r="CS45" s="5"/>
+      <c r="CT45" s="5"/>
+      <c r="CU45" s="5"/>
+      <c r="CV45" s="5"/>
+      <c r="CW45" s="5"/>
+      <c r="CX45" s="5"/>
+      <c r="CY45" s="5"/>
+      <c r="CZ45" s="5"/>
+      <c r="DA45" s="5"/>
+      <c r="DB45" s="5"/>
+      <c r="DC45" s="5"/>
+      <c r="DD45" s="5"/>
+      <c r="DE45" s="5"/>
+      <c r="DF45" s="5"/>
+      <c r="DG45" s="5"/>
+    </row>
+    <row r="46" spans="1:111" ht="22" customHeight="1">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="37">
+        <v>0</v>
+      </c>
+      <c r="E46" s="38">
+        <v>44683</v>
+      </c>
+      <c r="F46" s="39">
+        <v>44710</v>
+      </c>
+      <c r="G46" s="38">
+        <v>44683</v>
+      </c>
+      <c r="H46" s="39">
+        <v>44710</v>
+      </c>
+      <c r="I46" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J46" s="41">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K46" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="L46" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="M46" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="N46" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="O46" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="P46" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="Q46" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="R46" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="S46" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="T46" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="U46" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>ftr</v>
+      </c>
+      <c r="V46" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>ftr</v>
+      </c>
+      <c r="W46" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>ftr</v>
+      </c>
+      <c r="X46" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="Y46" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="Z46" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="AA46" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="AB46" s="21"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5"/>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="5"/>
+      <c r="AQ46" s="5"/>
+      <c r="AR46" s="5"/>
+      <c r="AS46" s="5"/>
+      <c r="AT46" s="5"/>
+      <c r="AU46" s="5"/>
+      <c r="AV46" s="5"/>
+      <c r="AW46" s="5"/>
+      <c r="AX46" s="5"/>
+      <c r="AY46" s="5"/>
+      <c r="AZ46" s="5"/>
+      <c r="BA46" s="5"/>
+      <c r="BB46" s="5"/>
+      <c r="BC46" s="5"/>
+      <c r="BD46" s="5"/>
+      <c r="BE46" s="5"/>
+      <c r="BF46" s="5"/>
+      <c r="BG46" s="5"/>
+      <c r="BH46" s="5"/>
+      <c r="BI46" s="5"/>
+      <c r="BJ46" s="5"/>
+      <c r="BK46" s="5"/>
+      <c r="BL46" s="5"/>
+      <c r="BM46" s="5"/>
+      <c r="BN46" s="5"/>
+      <c r="BO46" s="5"/>
+      <c r="BP46" s="5"/>
+      <c r="BQ46" s="5"/>
+      <c r="BR46" s="5"/>
+      <c r="BS46" s="5"/>
+      <c r="BT46" s="5"/>
+      <c r="BU46" s="5"/>
+      <c r="BV46" s="5"/>
+      <c r="BW46" s="5"/>
+      <c r="BX46" s="5"/>
+      <c r="BY46" s="5"/>
+      <c r="BZ46" s="5"/>
+      <c r="CA46" s="5"/>
+      <c r="CB46" s="5"/>
+      <c r="CC46" s="5"/>
+      <c r="CD46" s="5"/>
+      <c r="CE46" s="5"/>
+      <c r="CF46" s="5"/>
+      <c r="CG46" s="5"/>
+      <c r="CH46" s="5"/>
+      <c r="CI46" s="5"/>
+      <c r="CJ46" s="5"/>
+      <c r="CK46" s="5"/>
+      <c r="CL46" s="5"/>
+      <c r="CM46" s="5"/>
+      <c r="CN46" s="5"/>
+      <c r="CO46" s="5"/>
+      <c r="CP46" s="5"/>
+      <c r="CQ46" s="5"/>
+      <c r="CR46" s="5"/>
+      <c r="CS46" s="5"/>
+      <c r="CT46" s="5"/>
+      <c r="CU46" s="5"/>
+      <c r="CV46" s="5"/>
+      <c r="CW46" s="5"/>
+      <c r="CX46" s="5"/>
+      <c r="CY46" s="5"/>
+      <c r="CZ46" s="5"/>
+      <c r="DA46" s="5"/>
+      <c r="DB46" s="5"/>
+      <c r="DC46" s="5"/>
+      <c r="DD46" s="5"/>
+      <c r="DE46" s="5"/>
+      <c r="DF46" s="5"/>
+      <c r="DG46" s="5"/>
+    </row>
+    <row r="47" spans="1:111" ht="22" customHeight="1">
+      <c r="A47" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="45"/>
+      <c r="C47" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D47" s="46">
+        <f>AVERAGE(D48:D48)</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="47">
+        <f>MIN(E48)</f>
+        <v>44683</v>
+      </c>
+      <c r="F47" s="48">
+        <f>MAX(F48)</f>
+        <v>44710</v>
+      </c>
+      <c r="G47" s="47">
+        <f>MIN(G48)</f>
+        <v>44683</v>
+      </c>
+      <c r="H47" s="48">
+        <f>MAX(H48)</f>
+        <v>44710</v>
+      </c>
+      <c r="I47" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J47" s="50">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K47" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="L47" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="M47" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="N47" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="O47" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="P47" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="Q47" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="R47" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="S47" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="T47" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="U47" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>ftr</v>
+      </c>
+      <c r="V47" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>ftr</v>
+      </c>
+      <c r="W47" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>ftr</v>
+      </c>
+      <c r="X47" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="Y47" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="Z47" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="AA47" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="AB47" s="21"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5"/>
+      <c r="AM47" s="5"/>
+      <c r="AN47" s="5"/>
+      <c r="AO47" s="5"/>
+      <c r="AP47" s="5"/>
+      <c r="AQ47" s="5"/>
+      <c r="AR47" s="5"/>
+      <c r="AS47" s="5"/>
+      <c r="AT47" s="5"/>
+      <c r="AU47" s="5"/>
+      <c r="AV47" s="5"/>
+      <c r="AW47" s="5"/>
+      <c r="AX47" s="5"/>
+      <c r="AY47" s="5"/>
+      <c r="AZ47" s="5"/>
+      <c r="BA47" s="5"/>
+      <c r="BB47" s="5"/>
+      <c r="BC47" s="5"/>
+      <c r="BD47" s="5"/>
+      <c r="BE47" s="5"/>
+      <c r="BF47" s="5"/>
+      <c r="BG47" s="5"/>
+      <c r="BH47" s="5"/>
+      <c r="BI47" s="5"/>
+      <c r="BJ47" s="5"/>
+      <c r="BK47" s="5"/>
+      <c r="BL47" s="5"/>
+      <c r="BM47" s="5"/>
+      <c r="BN47" s="5"/>
+      <c r="BO47" s="5"/>
+      <c r="BP47" s="5"/>
+      <c r="BQ47" s="5"/>
+      <c r="BR47" s="5"/>
+      <c r="BS47" s="5"/>
+      <c r="BT47" s="5"/>
+      <c r="BU47" s="5"/>
+      <c r="BV47" s="5"/>
+      <c r="BW47" s="5"/>
+      <c r="BX47" s="5"/>
+      <c r="BY47" s="5"/>
+      <c r="BZ47" s="5"/>
+      <c r="CA47" s="5"/>
+      <c r="CB47" s="5"/>
+      <c r="CC47" s="5"/>
+      <c r="CD47" s="5"/>
+      <c r="CE47" s="5"/>
+      <c r="CF47" s="5"/>
+      <c r="CG47" s="5"/>
+      <c r="CH47" s="5"/>
+      <c r="CI47" s="5"/>
+      <c r="CJ47" s="5"/>
+      <c r="CK47" s="5"/>
+      <c r="CL47" s="5"/>
+      <c r="CM47" s="5"/>
+      <c r="CN47" s="5"/>
+      <c r="CO47" s="5"/>
+      <c r="CP47" s="5"/>
+      <c r="CQ47" s="5"/>
+      <c r="CR47" s="5"/>
+      <c r="CS47" s="5"/>
+      <c r="CT47" s="5"/>
+      <c r="CU47" s="5"/>
+      <c r="CV47" s="5"/>
+      <c r="CW47" s="5"/>
+      <c r="CX47" s="5"/>
+      <c r="CY47" s="5"/>
+      <c r="CZ47" s="5"/>
+      <c r="DA47" s="5"/>
+      <c r="DB47" s="5"/>
+      <c r="DC47" s="5"/>
+      <c r="DD47" s="5"/>
+      <c r="DE47" s="5"/>
+      <c r="DF47" s="5"/>
+      <c r="DG47" s="5"/>
+    </row>
+    <row r="48" spans="1:111" ht="22" customHeight="1">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="37">
+        <v>0</v>
+      </c>
+      <c r="E48" s="38">
+        <v>44683</v>
+      </c>
+      <c r="F48" s="39">
+        <v>44710</v>
+      </c>
+      <c r="G48" s="38">
+        <v>44683</v>
+      </c>
+      <c r="H48" s="39">
+        <v>44710</v>
+      </c>
+      <c r="I48" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J48" s="41">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K48" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="L48" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="M48" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="N48" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="O48" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="P48" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="Q48" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="R48" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="S48" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="T48" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="U48" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>ftr</v>
+      </c>
+      <c r="V48" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>ftr</v>
+      </c>
+      <c r="W48" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>ftr</v>
+      </c>
+      <c r="X48" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="Y48" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="Z48" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="AA48" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="AB48" s="21"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="5"/>
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="5"/>
+      <c r="AQ48" s="5"/>
+      <c r="AR48" s="5"/>
+      <c r="AS48" s="5"/>
+      <c r="AT48" s="5"/>
+      <c r="AU48" s="5"/>
+      <c r="AV48" s="5"/>
+      <c r="AW48" s="5"/>
+      <c r="AX48" s="5"/>
+      <c r="AY48" s="5"/>
+      <c r="AZ48" s="5"/>
+      <c r="BA48" s="5"/>
+      <c r="BB48" s="5"/>
+      <c r="BC48" s="5"/>
+      <c r="BD48" s="5"/>
+      <c r="BE48" s="5"/>
+      <c r="BF48" s="5"/>
+      <c r="BG48" s="5"/>
+      <c r="BH48" s="5"/>
+      <c r="BI48" s="5"/>
+      <c r="BJ48" s="5"/>
+      <c r="BK48" s="5"/>
+      <c r="BL48" s="5"/>
+      <c r="BM48" s="5"/>
+      <c r="BN48" s="5"/>
+      <c r="BO48" s="5"/>
+      <c r="BP48" s="5"/>
+      <c r="BQ48" s="5"/>
+      <c r="BR48" s="5"/>
+      <c r="BS48" s="5"/>
+      <c r="BT48" s="5"/>
+      <c r="BU48" s="5"/>
+      <c r="BV48" s="5"/>
+      <c r="BW48" s="5"/>
+      <c r="BX48" s="5"/>
+      <c r="BY48" s="5"/>
+      <c r="BZ48" s="5"/>
+      <c r="CA48" s="5"/>
+      <c r="CB48" s="5"/>
+      <c r="CC48" s="5"/>
+      <c r="CD48" s="5"/>
+      <c r="CE48" s="5"/>
+      <c r="CF48" s="5"/>
+      <c r="CG48" s="5"/>
+      <c r="CH48" s="5"/>
+      <c r="CI48" s="5"/>
+      <c r="CJ48" s="5"/>
+      <c r="CK48" s="5"/>
+      <c r="CL48" s="5"/>
+      <c r="CM48" s="5"/>
+      <c r="CN48" s="5"/>
+      <c r="CO48" s="5"/>
+      <c r="CP48" s="5"/>
+      <c r="CQ48" s="5"/>
+      <c r="CR48" s="5"/>
+      <c r="CS48" s="5"/>
+      <c r="CT48" s="5"/>
+      <c r="CU48" s="5"/>
+      <c r="CV48" s="5"/>
+      <c r="CW48" s="5"/>
+      <c r="CX48" s="5"/>
+      <c r="CY48" s="5"/>
+      <c r="CZ48" s="5"/>
+      <c r="DA48" s="5"/>
+      <c r="DB48" s="5"/>
+      <c r="DC48" s="5"/>
+      <c r="DD48" s="5"/>
+      <c r="DE48" s="5"/>
+      <c r="DF48" s="5"/>
+      <c r="DG48" s="5"/>
+    </row>
+    <row r="49" spans="1:111" ht="22" customHeight="1">
+      <c r="A49" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="45"/>
+      <c r="C49" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="46">
+        <f>AVERAGE(D50:D51)</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="47">
+        <f>MIN(E50:E51)</f>
+        <v>44648</v>
+      </c>
+      <c r="F49" s="48">
+        <f>MAX(F50:F51)</f>
+        <v>44682</v>
+      </c>
+      <c r="G49" s="47">
+        <f>MIN(G50:G51)</f>
+        <v>44648</v>
+      </c>
+      <c r="H49" s="48">
+        <f>MAX(H50:H51)</f>
+        <v>44682</v>
+      </c>
+      <c r="I49" s="51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J49" s="50">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="K49" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="L49" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="M49" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="N49" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="O49" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="P49" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="Q49" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="R49" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="S49" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="T49" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="U49" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="V49" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="W49" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="X49" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="Y49" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="Z49" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="AA49" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="AB49" s="21"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="5"/>
+      <c r="AO49" s="5"/>
+      <c r="AP49" s="5"/>
+      <c r="AQ49" s="5"/>
+      <c r="AR49" s="5"/>
+      <c r="AS49" s="5"/>
+      <c r="AT49" s="5"/>
+      <c r="AU49" s="5"/>
+      <c r="AV49" s="5"/>
+      <c r="AW49" s="5"/>
+      <c r="AX49" s="5"/>
+      <c r="AY49" s="5"/>
+      <c r="AZ49" s="5"/>
+      <c r="BA49" s="5"/>
+      <c r="BB49" s="5"/>
+      <c r="BC49" s="5"/>
+      <c r="BD49" s="5"/>
+      <c r="BE49" s="5"/>
+      <c r="BF49" s="5"/>
+      <c r="BG49" s="5"/>
+      <c r="BH49" s="5"/>
+      <c r="BI49" s="5"/>
+      <c r="BJ49" s="5"/>
+      <c r="BK49" s="5"/>
+      <c r="BL49" s="5"/>
+      <c r="BM49" s="5"/>
+      <c r="BN49" s="5"/>
+      <c r="BO49" s="5"/>
+      <c r="BP49" s="5"/>
+      <c r="BQ49" s="5"/>
+      <c r="BR49" s="5"/>
+      <c r="BS49" s="5"/>
+      <c r="BT49" s="5"/>
+      <c r="BU49" s="5"/>
+      <c r="BV49" s="5"/>
+      <c r="BW49" s="5"/>
+      <c r="BX49" s="5"/>
+      <c r="BY49" s="5"/>
+      <c r="BZ49" s="5"/>
+      <c r="CA49" s="5"/>
+      <c r="CB49" s="5"/>
+      <c r="CC49" s="5"/>
+      <c r="CD49" s="5"/>
+      <c r="CE49" s="5"/>
+      <c r="CF49" s="5"/>
+      <c r="CG49" s="5"/>
+      <c r="CH49" s="5"/>
+      <c r="CI49" s="5"/>
+      <c r="CJ49" s="5"/>
+      <c r="CK49" s="5"/>
+      <c r="CL49" s="5"/>
+      <c r="CM49" s="5"/>
+      <c r="CN49" s="5"/>
+      <c r="CO49" s="5"/>
+      <c r="CP49" s="5"/>
+      <c r="CQ49" s="5"/>
+      <c r="CR49" s="5"/>
+      <c r="CS49" s="5"/>
+      <c r="CT49" s="5"/>
+      <c r="CU49" s="5"/>
+      <c r="CV49" s="5"/>
+      <c r="CW49" s="5"/>
+      <c r="CX49" s="5"/>
+      <c r="CY49" s="5"/>
+      <c r="CZ49" s="5"/>
+      <c r="DA49" s="5"/>
+      <c r="DB49" s="5"/>
+      <c r="DC49" s="5"/>
+      <c r="DD49" s="5"/>
+      <c r="DE49" s="5"/>
+      <c r="DF49" s="5"/>
+      <c r="DG49" s="5"/>
+    </row>
+    <row r="50" spans="1:111" ht="22" customHeight="1">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="37">
+        <v>0</v>
+      </c>
+      <c r="E50" s="38">
+        <v>44648</v>
+      </c>
+      <c r="F50" s="39">
+        <v>44654</v>
+      </c>
+      <c r="G50" s="38">
+        <v>44648</v>
+      </c>
+      <c r="H50" s="39">
+        <v>44654</v>
+      </c>
+      <c r="I50" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J50" s="41">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="K50" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="L50" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="M50" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="N50" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="O50" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="P50" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="Q50" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="R50" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="S50" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="T50" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="U50" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="V50" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="W50" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="X50" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="Y50" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="Z50" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="AA50" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="AB50" s="21"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5"/>
+      <c r="AI50" s="5"/>
+      <c r="AJ50" s="5"/>
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="5"/>
+      <c r="AM50" s="5"/>
+      <c r="AN50" s="5"/>
+      <c r="AO50" s="5"/>
+      <c r="AP50" s="5"/>
+      <c r="AQ50" s="5"/>
+      <c r="AR50" s="5"/>
+      <c r="AS50" s="5"/>
+      <c r="AT50" s="5"/>
+      <c r="AU50" s="5"/>
+      <c r="AV50" s="5"/>
+      <c r="AW50" s="5"/>
+      <c r="AX50" s="5"/>
+      <c r="AY50" s="5"/>
+      <c r="AZ50" s="5"/>
+      <c r="BA50" s="5"/>
+      <c r="BB50" s="5"/>
+      <c r="BC50" s="5"/>
+      <c r="BD50" s="5"/>
+      <c r="BE50" s="5"/>
+      <c r="BF50" s="5"/>
+      <c r="BG50" s="5"/>
+      <c r="BH50" s="5"/>
+      <c r="BI50" s="5"/>
+      <c r="BJ50" s="5"/>
+      <c r="BK50" s="5"/>
+      <c r="BL50" s="5"/>
+      <c r="BM50" s="5"/>
+      <c r="BN50" s="5"/>
+      <c r="BO50" s="5"/>
+      <c r="BP50" s="5"/>
+      <c r="BQ50" s="5"/>
+      <c r="BR50" s="5"/>
+      <c r="BS50" s="5"/>
+      <c r="BT50" s="5"/>
+      <c r="BU50" s="5"/>
+      <c r="BV50" s="5"/>
+      <c r="BW50" s="5"/>
+      <c r="BX50" s="5"/>
+      <c r="BY50" s="5"/>
+      <c r="BZ50" s="5"/>
+      <c r="CA50" s="5"/>
+      <c r="CB50" s="5"/>
+      <c r="CC50" s="5"/>
+      <c r="CD50" s="5"/>
+      <c r="CE50" s="5"/>
+      <c r="CF50" s="5"/>
+      <c r="CG50" s="5"/>
+      <c r="CH50" s="5"/>
+      <c r="CI50" s="5"/>
+      <c r="CJ50" s="5"/>
+      <c r="CK50" s="5"/>
+      <c r="CL50" s="5"/>
+      <c r="CM50" s="5"/>
+      <c r="CN50" s="5"/>
+      <c r="CO50" s="5"/>
+      <c r="CP50" s="5"/>
+      <c r="CQ50" s="5"/>
+      <c r="CR50" s="5"/>
+      <c r="CS50" s="5"/>
+      <c r="CT50" s="5"/>
+      <c r="CU50" s="5"/>
+      <c r="CV50" s="5"/>
+      <c r="CW50" s="5"/>
+      <c r="CX50" s="5"/>
+      <c r="CY50" s="5"/>
+      <c r="CZ50" s="5"/>
+      <c r="DA50" s="5"/>
+      <c r="DB50" s="5"/>
+      <c r="DC50" s="5"/>
+      <c r="DD50" s="5"/>
+      <c r="DE50" s="5"/>
+      <c r="DF50" s="5"/>
+      <c r="DG50" s="5"/>
+    </row>
+    <row r="51" spans="1:111" ht="22" customHeight="1">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="37">
+        <v>0</v>
+      </c>
+      <c r="E51" s="38">
+        <v>44655</v>
+      </c>
+      <c r="F51" s="39">
+        <v>44682</v>
+      </c>
+      <c r="G51" s="38">
+        <v>44655</v>
+      </c>
+      <c r="H51" s="39">
+        <v>44682</v>
+      </c>
+      <c r="I51" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J51" s="41">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K51" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="L51" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="M51" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="N51" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="O51" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="P51" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="Q51" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="R51" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="S51" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>ftr</v>
+      </c>
+      <c r="T51" s="34" t="str">
+        <f t="shared" si="19"/>
+        <v>entr</v>
+      </c>
+      <c r="U51" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="V51" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="W51" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="X51" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="Y51" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="Z51" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="AA51" s="34" t="str">
+        <f t="shared" si="20"/>
+        <v>entr</v>
+      </c>
+      <c r="AB51" s="21"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+      <c r="AI51" s="5"/>
+      <c r="AJ51" s="5"/>
+      <c r="AK51" s="5"/>
+      <c r="AL51" s="5"/>
+      <c r="AM51" s="5"/>
+      <c r="AN51" s="5"/>
+      <c r="AO51" s="5"/>
+      <c r="AP51" s="5"/>
+      <c r="AQ51" s="5"/>
+      <c r="AR51" s="5"/>
+      <c r="AS51" s="5"/>
+      <c r="AT51" s="5"/>
+      <c r="AU51" s="5"/>
+      <c r="AV51" s="5"/>
+      <c r="AW51" s="5"/>
+      <c r="AX51" s="5"/>
+      <c r="AY51" s="5"/>
+      <c r="AZ51" s="5"/>
+      <c r="BA51" s="5"/>
+      <c r="BB51" s="5"/>
+      <c r="BC51" s="5"/>
+      <c r="BD51" s="5"/>
+      <c r="BE51" s="5"/>
+      <c r="BF51" s="5"/>
+      <c r="BG51" s="5"/>
+      <c r="BH51" s="5"/>
+      <c r="BI51" s="5"/>
+      <c r="BJ51" s="5"/>
+      <c r="BK51" s="5"/>
+      <c r="BL51" s="5"/>
+      <c r="BM51" s="5"/>
+      <c r="BN51" s="5"/>
+      <c r="BO51" s="5"/>
+      <c r="BP51" s="5"/>
+      <c r="BQ51" s="5"/>
+      <c r="BR51" s="5"/>
+      <c r="BS51" s="5"/>
+      <c r="BT51" s="5"/>
+      <c r="BU51" s="5"/>
+      <c r="BV51" s="5"/>
+      <c r="BW51" s="5"/>
+      <c r="BX51" s="5"/>
+      <c r="BY51" s="5"/>
+      <c r="BZ51" s="5"/>
+      <c r="CA51" s="5"/>
+      <c r="CB51" s="5"/>
+      <c r="CC51" s="5"/>
+      <c r="CD51" s="5"/>
+      <c r="CE51" s="5"/>
+      <c r="CF51" s="5"/>
+      <c r="CG51" s="5"/>
+      <c r="CH51" s="5"/>
+      <c r="CI51" s="5"/>
+      <c r="CJ51" s="5"/>
+      <c r="CK51" s="5"/>
+      <c r="CL51" s="5"/>
+      <c r="CM51" s="5"/>
+      <c r="CN51" s="5"/>
+      <c r="CO51" s="5"/>
+      <c r="CP51" s="5"/>
+      <c r="CQ51" s="5"/>
+      <c r="CR51" s="5"/>
+      <c r="CS51" s="5"/>
+      <c r="CT51" s="5"/>
+      <c r="CU51" s="5"/>
+      <c r="CV51" s="5"/>
+      <c r="CW51" s="5"/>
+      <c r="CX51" s="5"/>
+      <c r="CY51" s="5"/>
+      <c r="CZ51" s="5"/>
+      <c r="DA51" s="5"/>
+      <c r="DB51" s="5"/>
+      <c r="DC51" s="5"/>
+      <c r="DD51" s="5"/>
+      <c r="DE51" s="5"/>
+      <c r="DF51" s="5"/>
+      <c r="DG51" s="5"/>
+    </row>
+    <row r="52" spans="1:111" ht="16" customHeight="1">
+      <c r="A52" s="52"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
+      <c r="R52" s="52"/>
+      <c r="S52" s="52"/>
+      <c r="T52" s="52"/>
+      <c r="U52" s="52"/>
+      <c r="V52" s="52"/>
+      <c r="W52" s="52"/>
+      <c r="X52" s="52"/>
+      <c r="Y52" s="52"/>
+      <c r="Z52" s="52"/>
+      <c r="AA52" s="52"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="5"/>
+      <c r="AP52" s="5"/>
+      <c r="AQ52" s="5"/>
+      <c r="AR52" s="5"/>
+      <c r="AS52" s="5"/>
+      <c r="AT52" s="5"/>
+      <c r="AU52" s="5"/>
+      <c r="AV52" s="5"/>
+      <c r="AW52" s="5"/>
+      <c r="AX52" s="5"/>
+      <c r="AY52" s="5"/>
+      <c r="AZ52" s="5"/>
+      <c r="BA52" s="5"/>
+      <c r="BB52" s="5"/>
+      <c r="BC52" s="5"/>
+      <c r="BD52" s="5"/>
+      <c r="BE52" s="5"/>
+      <c r="BF52" s="5"/>
+      <c r="BG52" s="5"/>
+      <c r="BH52" s="5"/>
+      <c r="BI52" s="5"/>
+      <c r="BJ52" s="5"/>
+      <c r="BK52" s="5"/>
+      <c r="BL52" s="5"/>
+      <c r="BM52" s="5"/>
+      <c r="BN52" s="5"/>
+      <c r="BO52" s="5"/>
+      <c r="BP52" s="5"/>
+      <c r="BQ52" s="5"/>
+      <c r="BR52" s="5"/>
+      <c r="BS52" s="5"/>
+      <c r="BT52" s="5"/>
+      <c r="BU52" s="5"/>
+      <c r="BV52" s="5"/>
+      <c r="BW52" s="5"/>
+      <c r="BX52" s="5"/>
+      <c r="BY52" s="5"/>
+      <c r="BZ52" s="5"/>
+      <c r="CA52" s="5"/>
+      <c r="CB52" s="5"/>
+      <c r="CC52" s="5"/>
+      <c r="CD52" s="5"/>
+      <c r="CE52" s="5"/>
+      <c r="CF52" s="5"/>
+      <c r="CG52" s="5"/>
+      <c r="CH52" s="5"/>
+      <c r="CI52" s="5"/>
+      <c r="CJ52" s="5"/>
+      <c r="CK52" s="5"/>
+      <c r="CL52" s="5"/>
+      <c r="CM52" s="5"/>
+      <c r="CN52" s="5"/>
+      <c r="CO52" s="5"/>
+      <c r="CP52" s="5"/>
+      <c r="CQ52" s="5"/>
+      <c r="CR52" s="5"/>
+      <c r="CS52" s="5"/>
+      <c r="CT52" s="5"/>
+      <c r="CU52" s="5"/>
+      <c r="CV52" s="5"/>
+      <c r="CW52" s="5"/>
+      <c r="CX52" s="5"/>
+      <c r="CY52" s="5"/>
+      <c r="CZ52" s="5"/>
+      <c r="DA52" s="5"/>
+      <c r="DB52" s="5"/>
+      <c r="DC52" s="5"/>
+      <c r="DD52" s="5"/>
+      <c r="DE52" s="5"/>
+      <c r="DF52" s="5"/>
+      <c r="DG52" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A6:B6"/>
@@ -9538,20 +13304,20 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="K9:AA40">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="K9:AA51">
+    <cfRule type="cellIs" dxfId="9" priority="1" stopIfTrue="1" operator="equal">
       <formula>"fntr"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" stopIfTrue="1" operator="equal">
       <formula>"entr"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
       <formula>"err"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
       <formula>"etr"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>"ftr"</formula>
     </cfRule>
   </conditionalFormatting>
